--- a/jUni5/jUni5/Junit5exersice/Testinsurranceluan.xlsx
+++ b/jUni5/jUni5/Junit5exersice/Testinsurranceluan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhluan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPT_Learning\SWT301-ChiLTQ6\SWT301-JUnit5\jUni5\jUni5\Junit5exersice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F24D18-0C91-41EA-BAEE-55707A68EA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1127DC-1C17-4378-B1E9-050D50FC62D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57065AF8-B19D-4A4C-B3DB-15D033C68E1F}"/>
+    <workbookView xWindow="1536" yWindow="1248" windowWidth="17280" windowHeight="11712" xr2:uid="{57065AF8-B19D-4A4C-B3DB-15D033C68E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +189,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -389,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -541,28 +541,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71BC146-85E8-495B-8B67-E4210B8272E9}">
   <dimension ref="A1:DT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.296875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="11.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.69921875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="46.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:124" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:124" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -887,7 +887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:124" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:124" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
